--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_5926.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_5926.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5926</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cameron Green</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +976,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1028,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1080,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1132,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1184,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1236,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1284,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1259,7 +1323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1345,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1318,7 +1382,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4437</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1355,7 +1419,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1392,7 +1456,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1429,7 +1493,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1466,7 +1530,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1503,7 +1567,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1577,7 +1641,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1614,7 +1678,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1651,7 +1715,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1688,7 +1752,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1725,7 +1789,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1762,7 +1826,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1799,7 +1863,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4725</t>
+          <t>4725</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1836,7 +1900,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_5926.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_5926.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -920,7 +921,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>28/08/2022</t>
@@ -968,7 +968,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -1276,7 +1275,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -1932,4 +1930,413 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.27%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12.78%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.19%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.12%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15.24%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.13%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9.36%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4725</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.38%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>